--- a/Descargas/R15_11º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Junio.xlsx
+++ b/Descargas/R15_11º Juzgado De Garantia De Santiago_Terminos Por Rol_2020-Junio.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -302,7 +302,7 @@
         </is>
       </c>
       <c r="C7" s="65">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>355</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -362,7 +362,7 @@
         </is>
       </c>
       <c r="C11" s="65">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
